--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H2">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N2">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q2">
-        <v>353.1929905808491</v>
+        <v>364.9281120436434</v>
       </c>
       <c r="R2">
-        <v>353.1929905808491</v>
+        <v>3284.353008392789</v>
       </c>
       <c r="S2">
-        <v>0.133516286028461</v>
+        <v>0.1221368507587753</v>
       </c>
       <c r="T2">
-        <v>0.133516286028461</v>
+        <v>0.1221368507587754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H3">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q3">
-        <v>382.2521521766303</v>
+        <v>390.9889663039667</v>
       </c>
       <c r="R3">
-        <v>382.2521521766303</v>
+        <v>3518.9006967357</v>
       </c>
       <c r="S3">
-        <v>0.1445014172027487</v>
+        <v>0.1308590910093665</v>
       </c>
       <c r="T3">
-        <v>0.1445014172027487</v>
+        <v>0.1308590910093665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H4">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N4">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q4">
-        <v>133.9219125521421</v>
+        <v>151.0718058448134</v>
       </c>
       <c r="R4">
-        <v>133.9219125521421</v>
+        <v>1359.64625260332</v>
       </c>
       <c r="S4">
-        <v>0.05062602276558284</v>
+        <v>0.05056183394859962</v>
       </c>
       <c r="T4">
-        <v>0.05062602276558284</v>
+        <v>0.05056183394859963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H5">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I5">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J5">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N5">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q5">
-        <v>166.1947943875772</v>
+        <v>177.4725606525667</v>
       </c>
       <c r="R5">
-        <v>166.1947943875772</v>
+        <v>1597.2530458731</v>
       </c>
       <c r="S5">
-        <v>0.06282602513543822</v>
+        <v>0.05939783463875187</v>
       </c>
       <c r="T5">
-        <v>0.06282602513543822</v>
+        <v>0.05939783463875187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H6">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J6">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N6">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q6">
-        <v>471.7263420570504</v>
+        <v>490.1219405031013</v>
       </c>
       <c r="R6">
-        <v>471.7263420570504</v>
+        <v>4411.097464527911</v>
       </c>
       <c r="S6">
-        <v>0.1783250259572503</v>
+        <v>0.1640376510474739</v>
       </c>
       <c r="T6">
-        <v>0.1783250259572503</v>
+        <v>0.164037651047474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H7">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J7">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q7">
-        <v>510.537905050639</v>
+        <v>525.1233449981066</v>
       </c>
       <c r="R7">
-        <v>510.537905050639</v>
+        <v>4726.110104982959</v>
       </c>
       <c r="S7">
-        <v>0.1929968226351558</v>
+        <v>0.1757521810495987</v>
       </c>
       <c r="T7">
-        <v>0.1929968226351558</v>
+        <v>0.1757521810495987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H8">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J8">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N8">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q8">
-        <v>178.866782790937</v>
+        <v>202.8991579226773</v>
       </c>
       <c r="R8">
-        <v>178.866782790937</v>
+        <v>1826.092421304096</v>
       </c>
       <c r="S8">
-        <v>0.06761637169761055</v>
+        <v>0.06790779704940765</v>
       </c>
       <c r="T8">
-        <v>0.06761637169761055</v>
+        <v>0.06790779704940768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H9">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J9">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N9">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q9">
-        <v>221.9706067678296</v>
+        <v>238.3570707281867</v>
       </c>
       <c r="R9">
-        <v>221.9706067678296</v>
+        <v>2145.21363655368</v>
       </c>
       <c r="S9">
-        <v>0.08391075648014726</v>
+        <v>0.07977511464325263</v>
       </c>
       <c r="T9">
-        <v>0.08391075648014726</v>
+        <v>0.07977511464325265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H10">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I10">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J10">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N10">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q10">
-        <v>77.30360938846266</v>
+        <v>150.3845009685408</v>
       </c>
       <c r="R10">
-        <v>77.30360938846266</v>
+        <v>1353.460508716867</v>
       </c>
       <c r="S10">
-        <v>0.02922280763604159</v>
+        <v>0.05033180164818577</v>
       </c>
       <c r="T10">
-        <v>0.02922280763604159</v>
+        <v>0.05033180164818578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H11">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I11">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J11">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q11">
-        <v>83.66380944074049</v>
+        <v>161.1240094728456</v>
       </c>
       <c r="R11">
-        <v>83.66380944074049</v>
+        <v>1450.11608525561</v>
       </c>
       <c r="S11">
-        <v>0.03162713136846224</v>
+        <v>0.05392618011376148</v>
       </c>
       <c r="T11">
-        <v>0.03162713136846224</v>
+        <v>0.05392618011376149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H12">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I12">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J12">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N12">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q12">
-        <v>29.31158741134993</v>
+        <v>62.25570840558179</v>
       </c>
       <c r="R12">
-        <v>29.31158741134993</v>
+        <v>560.3013756502361</v>
       </c>
       <c r="S12">
-        <v>0.01108055480468597</v>
+        <v>0.02083620284508259</v>
       </c>
       <c r="T12">
-        <v>0.01108055480468597</v>
+        <v>0.02083620284508259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H13">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I13">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J13">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N13">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q13">
-        <v>36.37517677404821</v>
+        <v>73.13528771429223</v>
       </c>
       <c r="R13">
-        <v>36.37517677404821</v>
+        <v>658.21758942863</v>
       </c>
       <c r="S13">
-        <v>0.01375077828841542</v>
+        <v>0.02447746124774385</v>
       </c>
       <c r="T13">
-        <v>0.01375077828841542</v>
+        <v>0.02447746124774385</v>
       </c>
     </row>
   </sheetData>
